--- a/resources/experiment 1/metrics/R2/upto time/Edema macular diabético (UPTO).xlsx
+++ b/resources/experiment 1/metrics/R2/upto time/Edema macular diabético (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4573581655652225</v>
+        <v>0.4617684923563146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4573581655652225</v>
+        <v>0.4617684923563146</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4573581655652225</v>
+        <v>0.4617684923563146</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9794835359189527</v>
+        <v>0.9736619800583912</v>
       </c>
       <c r="C3" t="n">
-        <v>0.979465556686686</v>
+        <v>0.9735190221601109</v>
       </c>
       <c r="D3" t="n">
-        <v>0.979465556686686</v>
+        <v>0.9723496566305139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9831661746871453</v>
+        <v>0.979337566335427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.983205090374468</v>
+        <v>0.9795312667123779</v>
       </c>
       <c r="D4" t="n">
-        <v>0.983205090374468</v>
+        <v>0.978821963618397</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9472044355645998</v>
+        <v>0.8467382909027327</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9473743791279252</v>
+        <v>0.818862000441681</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9473743791279252</v>
+        <v>0.8210698750958116</v>
       </c>
     </row>
   </sheetData>
